--- a/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
@@ -22795,7 +22795,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>2023.01.06 20:43:25</t>
+    <t>2023.01.06 20:48:28</t>
   </si>
 </sst>
 </file>

--- a/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
@@ -22795,7 +22795,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>2023.01.06 20:48:28</t>
+    <t>2023.01.06 20:49:53</t>
   </si>
 </sst>
 </file>

--- a/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
@@ -22795,7 +22795,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>2023.01.06 20:49:53</t>
+    <t>2023.01.07 00:28:25</t>
   </si>
 </sst>
 </file>

--- a/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
@@ -22795,7 +22795,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>2023.01.07 00:28:25</t>
+    <t>2023.01.14 14:37:42</t>
   </si>
 </sst>
 </file>

--- a/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
@@ -22795,7 +22795,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>2023.01.14 14:37:42</t>
+    <t>2023.01.14 20:19:16</t>
   </si>
 </sst>
 </file>

--- a/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
+++ b/data/20210323 Hinterkipper_de en_final_masterv2.xlsx
@@ -22795,7 +22795,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>2023.01.14 20:19:16</t>
+    <t>2023.01.14 21:31:44</t>
   </si>
 </sst>
 </file>
